--- a/import attendee list.xlsx
+++ b/import attendee list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\event_organizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A668BAA-0049-4954-8C14-980F33421A5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28C60FB-D118-4D39-AB5C-9A8DE6933DB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>No.</t>
   </si>
@@ -57,35 +57,38 @@
     <t>Address</t>
   </si>
   <si>
-    <t>&lt;optional&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sample address, optional&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sample.email, required&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sample, required&gt;</t>
-  </si>
-  <si>
-    <t>&lt;male, optional&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sample ic/passport no., optional&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sample phone number, optional&gt;</t>
-  </si>
-  <si>
-    <t>&lt;sample org., optional&gt;</t>
+    <t>Tan Zhang En</t>
+  </si>
+  <si>
+    <t>zhangen69@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>940830-01-6651</t>
+  </si>
+  <si>
+    <t>019-7765290</t>
+  </si>
+  <si>
+    <t>Soo De Xiang</t>
+  </si>
+  <si>
+    <t>dexiang@gmail.com</t>
+  </si>
+  <si>
+    <t>980122-01-6412</t>
+  </si>
+  <si>
+    <t>012-1325418</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +101,14 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -118,13 +129,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,36 +472,48 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
+      <c r="F3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1F339EBC-479C-48FC-A98D-54F66602383F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{09DA114D-F6F7-4AE7-861B-C97B201A0A0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/import attendee list.xlsx
+++ b/import attendee list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\event_organizing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Projects\event_organizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28C60FB-D118-4D39-AB5C-9A8DE6933DB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA23108-DFEC-4F21-96F1-7FAB29302D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
   <si>
     <t>No.</t>
   </si>
@@ -82,6 +82,186 @@
   </si>
   <si>
     <t>012-1325418</t>
+  </si>
+  <si>
+    <t>zhangen70@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6652</t>
+  </si>
+  <si>
+    <t>019-7765291</t>
+  </si>
+  <si>
+    <t>980122-01-6413</t>
+  </si>
+  <si>
+    <t>012-1325419</t>
+  </si>
+  <si>
+    <t>zhangen71@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6653</t>
+  </si>
+  <si>
+    <t>019-7765292</t>
+  </si>
+  <si>
+    <t>980122-01-6414</t>
+  </si>
+  <si>
+    <t>012-1325420</t>
+  </si>
+  <si>
+    <t>zhangen72@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6654</t>
+  </si>
+  <si>
+    <t>019-7765293</t>
+  </si>
+  <si>
+    <t>980122-01-6415</t>
+  </si>
+  <si>
+    <t>012-1325421</t>
+  </si>
+  <si>
+    <t>zhangen73@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6655</t>
+  </si>
+  <si>
+    <t>019-7765294</t>
+  </si>
+  <si>
+    <t>980122-01-6416</t>
+  </si>
+  <si>
+    <t>012-1325422</t>
+  </si>
+  <si>
+    <t>zhangen74@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6656</t>
+  </si>
+  <si>
+    <t>019-7765295</t>
+  </si>
+  <si>
+    <t>980122-01-6417</t>
+  </si>
+  <si>
+    <t>012-1325423</t>
+  </si>
+  <si>
+    <t>zhangen75@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6657</t>
+  </si>
+  <si>
+    <t>019-7765296</t>
+  </si>
+  <si>
+    <t>980122-01-6418</t>
+  </si>
+  <si>
+    <t>012-1325424</t>
+  </si>
+  <si>
+    <t>zhangen76@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6658</t>
+  </si>
+  <si>
+    <t>019-7765297</t>
+  </si>
+  <si>
+    <t>980122-01-6419</t>
+  </si>
+  <si>
+    <t>012-1325425</t>
+  </si>
+  <si>
+    <t>zhangen77@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6659</t>
+  </si>
+  <si>
+    <t>019-7765298</t>
+  </si>
+  <si>
+    <t>980122-01-6420</t>
+  </si>
+  <si>
+    <t>012-1325426</t>
+  </si>
+  <si>
+    <t>zhangen78@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6660</t>
+  </si>
+  <si>
+    <t>019-7765299</t>
+  </si>
+  <si>
+    <t>980122-01-6421</t>
+  </si>
+  <si>
+    <t>012-1325427</t>
+  </si>
+  <si>
+    <t>zhangen79@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6661</t>
+  </si>
+  <si>
+    <t>019-7765300</t>
+  </si>
+  <si>
+    <t>980122-01-6422</t>
+  </si>
+  <si>
+    <t>012-1325428</t>
+  </si>
+  <si>
+    <t>zhangen80@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6662</t>
+  </si>
+  <si>
+    <t>019-7765301</t>
+  </si>
+  <si>
+    <t>980122-01-6423</t>
+  </si>
+  <si>
+    <t>012-1325429</t>
+  </si>
+  <si>
+    <t>zhangen81@gmail.com</t>
+  </si>
+  <si>
+    <t>940830-01-6663</t>
+  </si>
+  <si>
+    <t>019-7765302</t>
+  </si>
+  <si>
+    <t>980122-01-6424</t>
+  </si>
+  <si>
+    <t>012-1325430</t>
   </si>
 </sst>
 </file>
@@ -92,13 +272,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -107,7 +287,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -417,22 +597,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -507,13 +687,559 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1F339EBC-479C-48FC-A98D-54F66602383F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{09DA114D-F6F7-4AE7-861B-C97B201A0A0E}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{09DA114D-F6F7-4AE7-861B-C97B201A0A0E}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{1F339EBC-479C-48FC-A98D-54F66602383F}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{B09722B7-81D5-403F-B078-28F605AB7918}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{F0ABAE37-8467-4E93-9081-0B38CF59B134}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{A637E00E-30A9-41C4-B3A8-83F070E5D359}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{7EF854A5-3322-426E-8702-847556C03728}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{0372ACCD-1299-4725-B5F9-5996FE4A1816}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{E2BD922C-F964-4EEE-ABB6-A44ADF19BB4F}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{9BB76D7D-3F0C-4CF8-82E3-2AD0304438DE}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{AC346C14-C077-439C-BB24-DD4C8F498951}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{E281AEB0-533D-4B22-B957-3502D5B2B67C}"/>
+    <hyperlink ref="C21" r:id="rId12" xr:uid="{45AF4DCE-76BE-4E68-A791-D49B063D4E40}"/>
+    <hyperlink ref="C23" r:id="rId13" xr:uid="{73931E6B-8505-419E-866A-5AD6DC298021}"/>
+    <hyperlink ref="C25" r:id="rId14" xr:uid="{DD42A83C-6394-493F-B75D-E648279569FF}"/>
+    <hyperlink ref="C27" r:id="rId15" xr:uid="{8CC49000-DA61-42A0-B74E-34447266F98D}"/>
+    <hyperlink ref="C29" r:id="rId16" xr:uid="{032FC2A2-AD80-4E7A-A718-812EE6AA9BDE}"/>
+    <hyperlink ref="C6" r:id="rId17" display="zhangen69@gmail.com" xr:uid="{6D0CDE99-FACA-437C-A0F2-64A040175DB3}"/>
+    <hyperlink ref="C8" r:id="rId18" display="zhangen69@gmail.com" xr:uid="{52F43956-63ED-42B7-87A5-060D9420AB8E}"/>
+    <hyperlink ref="C10" r:id="rId19" display="zhangen69@gmail.com" xr:uid="{A1A37426-230F-4425-90EA-C08C4FD54079}"/>
+    <hyperlink ref="C12" r:id="rId20" display="zhangen69@gmail.com" xr:uid="{9C9A3081-48B4-456A-8DD6-35904294E816}"/>
+    <hyperlink ref="C14" r:id="rId21" display="zhangen69@gmail.com" xr:uid="{5B7E736E-6D48-4869-84A3-2937ADF905E6}"/>
+    <hyperlink ref="C16" r:id="rId22" display="zhangen69@gmail.com" xr:uid="{03FB70EE-CCAC-4FC7-9614-ECCCB0BF0965}"/>
+    <hyperlink ref="C18" r:id="rId23" display="zhangen69@gmail.com" xr:uid="{48AF320F-C7CE-482E-94A0-DE74FCEAAE57}"/>
+    <hyperlink ref="C20" r:id="rId24" display="zhangen69@gmail.com" xr:uid="{963DA542-7FE5-428A-93A1-1389858CA7D5}"/>
+    <hyperlink ref="C22" r:id="rId25" display="zhangen69@gmail.com" xr:uid="{69AA42DA-C1CD-420B-991C-33941F9059B8}"/>
+    <hyperlink ref="C24" r:id="rId26" display="zhangen69@gmail.com" xr:uid="{0023A591-C5D4-4502-97A5-FF84B6AAB89B}"/>
+    <hyperlink ref="C26" r:id="rId27" display="zhangen69@gmail.com" xr:uid="{BC637CC1-A193-45C8-8BC0-1730CBC4E105}"/>
+    <hyperlink ref="C28" r:id="rId28" display="zhangen69@gmail.com" xr:uid="{1BC34410-C44E-4F27-B076-C51D4EA45D81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId29"/>
 </worksheet>
 </file>